--- a/Modul-3/t0n180w_5day.xlsx
+++ b/Modul-3/t0n180w_5day.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Github\Metode-Analisis-Data-Oseanografi\Modul-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E071E78A-06EC-4FC1-9568-DE221FCDAD57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23735ED0-F123-423C-9743-43117B0513FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="11130" yWindow="3360" windowWidth="7635" windowHeight="7200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="t0n180w_5day" sheetId="1" r:id="rId1"/>
@@ -878,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="O72" sqref="O72"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
